--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E001FFF-17DD-4570-864B-A69345F4D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1D7EB-AE8A-412D-A994-E5843773CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
+    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,16 +66,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>감사합니다. 그럼 저는 북쪽 숲으로 가서 직접 확인해보겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>안녕하세요, 여행자님. 최근 우리 마을 주변에 이상한 소문이 돌고 있어요. 북쪽 숲에서 이상한 소리가 들린다고 하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디 조심하세요, 여행자님. 마을의 평화를 위해 당신의 도움이 절실합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음, 정확한 것은 모르겠지만, 며칠 전 사냥꾼이 그쪽에서 거대한 그림자를 보았다고 했어요. 조심하는 게 좋을 거예요.</t>
-  </si>
-  <si>
-    <t>감사합니다. 그럼 저는 북쪽 숲으로 가서 직접 확인해보겠습니다.</t>
-  </si>
-  <si>
-    <t>부디 조심하세요, 여행자님. 마을의 평화를 위해 당신의 도움이 절실합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -121,9 +128,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,98 +472,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -708,22 +780,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -739,28 +820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1D7EB-AE8A-412D-A994-E5843773CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0DCC7-2B92-481E-8294-FEE398595B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,38 +50,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 마을의 수호자님. 요즘 마을에 어떤 일이 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥미롭네요. 그곳에 무슨 일이 벌어지고 있는지 알아봐야겠어요. 혹시 더 자세한 정보를 알고 계신가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER</t>
-  </si>
-  <si>
-    <t>감사합니다. 그럼 저는 북쪽 숲으로 가서 직접 확인해보겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 여행자님. 최근 우리 마을 주변에 이상한 소문이 돌고 있어요. 북쪽 숲에서 이상한 소리가 들린다고 하네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디 조심하세요, 여행자님. 마을의 평화를 위해 당신의 도움이 절실합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음, 정확한 것은 모르겠지만, 며칠 전 사냥꾼이 그쪽에서 거대한 그림자를 보았다고 했어요. 조심하는 게 좋을 거예요.</t>
+    <t>STAGE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 댐을 짓고 있는 비버님. 지금 잠깐 시간 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 토끼님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다름이 아니라, 나무 상자가 필요해서요. 혹시 나무 상자를 만들어 주실 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론이죠! 제가 나무를 잘 다루거든요. 우선 상자의 바닥을 만들어 드릴까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네, 상자의 바닥부터 시작하면 좋겠어요. 감사합니다, 비버님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천만에요, 토끼님. 상자의 바닥은 금방 만들 수 있을 거예요. 조금만 기다려 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 비버님. 나무 상자의 바닥이 완성되었나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 토끼님. 네, 바닥은 이미 완성되었습니다. 무엇을 도와드릴까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 나무 상자의 옆면을 만들어 주실 수 있을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론이죠! 옆면을 만들어서 드릴 테니 조금만 기다려 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비버님! 옆면이 완성되면 알려 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어요, 토끼님. 곧 완성될 거예요. 기다려 주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,11 +526,11 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -513,11 +542,11 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -529,14 +558,14 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -545,14 +574,14 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -561,14 +590,14 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -577,11 +606,11 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2</v>
+      <c r="A7" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -592,8 +621,110 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
@@ -614,15 +745,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -780,6 +902,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
   <ds:schemaRefs>
@@ -797,14 +928,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -820,4 +943,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0DCC7-2B92-481E-8294-FEE398595B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3427DC84-C5C9-4394-B02E-960CC5880224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,12 +157,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,250 +498,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C2:H2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -902,16 +894,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -927,7 +918,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -943,12 +934,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3427DC84-C5C9-4394-B02E-960CC5880224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6AE0-E0E6-413D-8F7C-AFC0E91103C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요, 댐을 짓고 있는 비버님. 지금 잠깐 시간 있으신가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 토끼님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다름이 아니라, 나무 상자가 필요해서요. 혹시 나무 상자를 만들어 주실 수 있나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,44 +66,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네, 상자의 바닥부터 시작하면 좋겠어요. 감사합니다, 비버님!</t>
+    <t>STAGE_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>천만에요, 토끼님. 상자의 바닥은 금방 만들 수 있을 거예요. 조금만 기다려 주세요!</t>
+    <t>STAGE_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요, 비버님. 나무 상자의 바닥이 완성되었나요?</t>
+    <t>STAGE_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요, 토끼님. 네, 바닥은 이미 완성되었습니다. 무엇을 도와드릴까요?</t>
+    <t>네, 나무 상자에 손잡이를 달아 주실 수 있을까요? 손잡이가 있으면 상자를 쉽게 이동시킬 수 있을 거예요.</t>
+  </si>
+  <si>
+    <t>그럼 나무 상자의 덮개를 만들어 주실 수 있을까요?</t>
+  </si>
+  <si>
+    <t>물론이죠! 덮개는 상자의 윗부분을 덮어 내용물을 보호하고, 쉽게 열고 닫을 수 있게 해 줄 거예요.</t>
+  </si>
+  <si>
+    <t>물론이죠! 손잡이는 양쪽에 부착해서 편리하게 들어 올릴 수 있게 해 드릴게요.</t>
+  </si>
+  <si>
+    <t>네, 나무 상자의 벽면을 만들어 주실 수 있을까요? 벽면이 있어야 상자의 구조가 완성되고 내용물을 잘 보호할 수 있을 거예요.</t>
+  </si>
+  <si>
+    <t>물론이죠! 벽면은 상자의 측면을 구성하는 부분으로, 네 면으로 이루어져 있습니다. 금방 만들어 드릴게요.</t>
+  </si>
+  <si>
+    <t>STAGE_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그럼 나무 상자의 옆면을 만들어 주실 수 있을까요?</t>
+    <t>비비</t>
+  </si>
+  <si>
+    <t>너티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물론이죠! 옆면을 만들어서 드릴 테니 조금만 기다려 주세요.</t>
+    <t>토리</t>
+  </si>
+  <si>
+    <t>STAGE_7</t>
+  </si>
+  <si>
+    <t>STAGE_8</t>
+  </si>
+  <si>
+    <t>STAGE_9</t>
+  </si>
+  <si>
+    <t>STAGE_10</t>
+  </si>
+  <si>
+    <t>핑키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정말 감사합니다, 비버님! 옆면이 완성되면 알려 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어요, 토끼님. 곧 완성될 거예요. 기다려 주셔서 감사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>STAGE_11</t>
+  </si>
+  <si>
+    <t>STAGE_12</t>
+  </si>
+  <si>
+    <t>STAGE_13</t>
+  </si>
+  <si>
+    <t>STAGE_14</t>
+  </si>
+  <si>
+    <t>STAGE_15</t>
+  </si>
+  <si>
+    <t>안녕하세요, 토리님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
+  </si>
+  <si>
+    <t>천만에요, 토리님. 상자의 바닥은 금방 만들 수 있을 거예요. 조금만 기다려 주세요!</t>
+  </si>
+  <si>
+    <t>안녕하세요, 토리님. 네, 바닥은 이미 완성되었습니다. 무엇을 도와드릴까요?</t>
+  </si>
+  <si>
+    <t>알겠어요, 토리님. 곧 완성될 거예요. 기다려 주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>네, 토리님. 덮개는 완성되었습니다. 상자의 내용물을 잘 보호할 수 있을 거예요. 더 도와드릴 일이 있을까요?</t>
+  </si>
+  <si>
+    <t>알겠습니다, 토리님. 조금만 기다려 주세요. 곧 손잡이도 완성하겠습니다.</t>
+  </si>
+  <si>
+    <t>네, 토리님. 손잡이는 양쪽에 부착되어 있습니다. 이제 상자를 쉽게 이동시킬 수 있을 거예요. 더 도와드릴 일이 있을까요?</t>
+  </si>
+  <si>
+    <t>알겠습니다, 토리님. 조금만 기다려 주세요. 곧 벽면도 완성하겠습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요, 댐을 짓고 있는 비비님. 지금 잠깐 시간 있으신가요?</t>
+  </si>
+  <si>
+    <t>네, 상자의 바닥부터 시작하면 좋겠어요. 감사합니다, 비비님!</t>
+  </si>
+  <si>
+    <t>안녕하세요, 비비님. 나무 상자의 바닥이 완성되었나요?</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 덮개가 완성되면 알려 주세요.</t>
+  </si>
+  <si>
+    <t>비비님, 덮개가 완성되었나요?</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 손잡이가 있으면 상자가 훨씬 유용해질 거예요.</t>
+  </si>
+  <si>
+    <t>비비님, 손잡이가 완성되었나요?</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 벽면이 완성되면 상자가 훨씬 튼튼해질 거예요.</t>
+  </si>
+  <si>
+    <t>비비님, 벽면이 완성되었나요?</t>
+  </si>
+  <si>
+    <t>네, 토리님. 벽면은 완성되었습니다. 이제 상자의 구조가 완성되고 내용물이 잘 보호될 거예요. 더 도와드릴 일이 있을까요?</t>
+  </si>
+  <si>
+    <t>네, 나무 상자에 목재 자물쇠를 달아 주실 수 있을까요? 자물쇠가 있으면 상자의 뚜껑을 안전하게 닫을 수 있을 거예요.</t>
+  </si>
+  <si>
+    <t>물론이죠! 목재 자물쇠는 상자를 잠글 수 있도록 해주는 장치로, 뚜껑을 안전하게 닫을 수 있게 해 줄 거예요.</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 자물쇠가 있으면 상자가 훨씬 안전해질 거예요.</t>
+  </si>
+  <si>
+    <t>천만에요, 토리님. 당신 덕분에 저도 즐거운 시간을 보냈어요. 한동안 만나지 못하겠지만, 당신에게도 좋은 일이 가득하길 바라요.</t>
+  </si>
+  <si>
+    <t>안녕하세요, 댐을 짓고 있는 비비님. 잠깐 시간 있으신가요?</t>
+  </si>
+  <si>
+    <t>안녕하세요, 너티님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
+  </si>
+  <si>
+    <t>다름이 아니라, 도토리를 담을 수 있는 수레가 필요해서요. 혹시 수레를 만들어 주실 수 있나요?</t>
+  </si>
+  <si>
+    <t>물론이죠! 제가 나무를 잘 다루거든요. 도토리를 담을 수 있는 튼튼한 수레를 만들어 드릴게요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정말 감사합니다, 비비님! 그런데 수레를 만들려면 바퀴가 필요해요. </t>
+  </si>
+  <si>
+    <t>바퀴는 수레의 이동을 가능하게 하는 중요한 부분이죠. 나무로 튼튼하게 만들어 드릴게요. 조금만 기다려 주세요.</t>
   </si>
 </sst>
 </file>
@@ -498,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -547,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -560,10 +671,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -579,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -592,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -611,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -624,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -643,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -656,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -675,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -688,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -707,13 +818,709 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -731,12 +1538,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -894,6 +1695,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
   <ds:schemaRefs>
@@ -903,22 +1710,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -934,4 +1725,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6AE0-E0E6-413D-8F7C-AFC0E91103C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B67572-6174-4F5D-A909-6FFD51B2B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,55 @@
   </si>
   <si>
     <t>바퀴는 수레의 이동을 가능하게 하는 중요한 부분이죠. 나무로 튼튼하게 만들어 드릴게요. 조금만 기다려 주세요.</t>
+  </si>
+  <si>
+    <t>비비님, 바퀴가 완성되었나요?</t>
+  </si>
+  <si>
+    <t>네, 너티님. 바퀴는 완성되었습니다. 이제 수레를 이동시키는 데 문제가 없을 거예요. 더 도와드릴 일이 있을까요?</t>
+  </si>
+  <si>
+    <t>네, 이제 수레의 평평한 바닥 부분이 필요해요. 모든 짐을 지지하고 하중을 받을 수 있도록 만들어 주실 수 있나요?</t>
+  </si>
+  <si>
+    <t>물론이죠! 수레바닥은 짐을 실을 수 있는 주요 공간이니까요. 튼튼하게 만들어 드릴게요.</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 수레바닥이 완성되면 짐을 안전하게 실을 수 있을 거예요.</t>
+  </si>
+  <si>
+    <t>천만에요, 너티님. 당신 덕분에 즐거운 작업이 되었어요. 한동안 만나지 못하겠지만, 당신의 도토리 수집이 잘 되길 바라요.</t>
+  </si>
+  <si>
+    <t>정말 감사합니다, 비비님! 이제 수레가 완성되면 도토리를 쉽게 운반할 수 있을 거예요.</t>
+  </si>
+  <si>
+    <t>천만에요, 너티님. 도움이 되어 기쁩니다. 수레가 완성되면 다시 찾아와 주세요.</t>
+  </si>
+  <si>
+    <t>네, 너티님. 바퀴는 완성되었습니다. 이제 수레를 쉽게 이동시킬 수 있을 거예요. 다른 요청사항이 있을까요?</t>
+  </si>
+  <si>
+    <t>네, 바퀴축도 만들어 주실 수 있을까요? 바퀴축은 두 개의 바퀴를 연결해 수레의 하중을 분산시키고, 안정성을 높여줘요.</t>
+  </si>
+  <si>
+    <t>물론이죠! 바퀴축은 견고하게 만들어 드릴게요. 조금만 기다려 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비님, 바퀴축이 완성되었나요?</t>
+  </si>
+  <si>
+    <t>네, 너티님. 바퀴축은 완성되었습니다. 이제 바퀴를 안정적으로 연결할 수 있을 거예요. 다른 요청사항이 있을까요?</t>
+  </si>
+  <si>
+    <t>네, 수레의 받침대도 만들어 주실 수 있을까요? 받침대는 수레바닥과 바퀴축을 지지해 수레를 더 튼튼하게 해 줘요.</t>
+  </si>
+  <si>
+    <t>물론이죠! 받침대는 수레의 안정성을 높이는 중요한 부분이죠. 견고하게 만들어 드릴게요.</t>
+  </si>
+  <si>
+    <t>천만에요, 너티님. 수레가 완성되면 다시 찾아와 주세요. 도와드릴 수 있어서 기쁩니다.</t>
   </si>
 </sst>
 </file>
@@ -611,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,6 +1146,9 @@
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -1105,6 +1157,9 @@
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -1113,6 +1168,9 @@
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -1121,6 +1179,9 @@
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -1129,6 +1190,9 @@
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1137,6 +1201,9 @@
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1145,6 +1212,9 @@
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1153,6 +1223,9 @@
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -1161,6 +1234,9 @@
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -1169,6 +1245,9 @@
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -1177,64 +1256,88 @@
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -1538,6 +1641,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -1695,12 +1804,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
   <ds:schemaRefs>
@@ -1710,6 +1813,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1725,20 +1844,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Data/DialogDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B67572-6174-4F5D-A909-6FFD51B2B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D04F08-C284-4A52-ACBF-9D1616E537F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE2DD2BB-9234-4AC5-9013-010D946FBE43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다름이 아니라, 나무 상자가 필요해서요. 혹시 나무 상자를 만들어 주실 수 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론이죠! 제가 나무를 잘 다루거든요. 우선 상자의 바닥을 만들어 드릴까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAGE_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,24 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네, 나무 상자에 손잡이를 달아 주실 수 있을까요? 손잡이가 있으면 상자를 쉽게 이동시킬 수 있을 거예요.</t>
-  </si>
-  <si>
-    <t>그럼 나무 상자의 덮개를 만들어 주실 수 있을까요?</t>
-  </si>
-  <si>
-    <t>물론이죠! 덮개는 상자의 윗부분을 덮어 내용물을 보호하고, 쉽게 열고 닫을 수 있게 해 줄 거예요.</t>
-  </si>
-  <si>
-    <t>물론이죠! 손잡이는 양쪽에 부착해서 편리하게 들어 올릴 수 있게 해 드릴게요.</t>
-  </si>
-  <si>
-    <t>네, 나무 상자의 벽면을 만들어 주실 수 있을까요? 벽면이 있어야 상자의 구조가 완성되고 내용물을 잘 보호할 수 있을 거예요.</t>
-  </si>
-  <si>
-    <t>물론이죠! 벽면은 상자의 측면을 구성하는 부분으로, 네 면으로 이루어져 있습니다. 금방 만들어 드릴게요.</t>
-  </si>
-  <si>
     <t>STAGE_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,137 +115,286 @@
     <t>STAGE_15</t>
   </si>
   <si>
-    <t>안녕하세요, 토리님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
-  </si>
-  <si>
-    <t>천만에요, 토리님. 상자의 바닥은 금방 만들 수 있을 거예요. 조금만 기다려 주세요!</t>
-  </si>
-  <si>
-    <t>안녕하세요, 토리님. 네, 바닥은 이미 완성되었습니다. 무엇을 도와드릴까요?</t>
-  </si>
-  <si>
-    <t>알겠어요, 토리님. 곧 완성될 거예요. 기다려 주셔서 감사합니다.</t>
-  </si>
-  <si>
-    <t>네, 토리님. 덮개는 완성되었습니다. 상자의 내용물을 잘 보호할 수 있을 거예요. 더 도와드릴 일이 있을까요?</t>
-  </si>
-  <si>
-    <t>알겠습니다, 토리님. 조금만 기다려 주세요. 곧 손잡이도 완성하겠습니다.</t>
-  </si>
-  <si>
-    <t>네, 토리님. 손잡이는 양쪽에 부착되어 있습니다. 이제 상자를 쉽게 이동시킬 수 있을 거예요. 더 도와드릴 일이 있을까요?</t>
-  </si>
-  <si>
-    <t>알겠습니다, 토리님. 조금만 기다려 주세요. 곧 벽면도 완성하겠습니다.</t>
-  </si>
-  <si>
-    <t>안녕하세요, 댐을 짓고 있는 비비님. 지금 잠깐 시간 있으신가요?</t>
-  </si>
-  <si>
-    <t>네, 상자의 바닥부터 시작하면 좋겠어요. 감사합니다, 비비님!</t>
-  </si>
-  <si>
-    <t>안녕하세요, 비비님. 나무 상자의 바닥이 완성되었나요?</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 덮개가 완성되면 알려 주세요.</t>
-  </si>
-  <si>
-    <t>비비님, 덮개가 완성되었나요?</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 손잡이가 있으면 상자가 훨씬 유용해질 거예요.</t>
-  </si>
-  <si>
-    <t>비비님, 손잡이가 완성되었나요?</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 벽면이 완성되면 상자가 훨씬 튼튼해질 거예요.</t>
-  </si>
-  <si>
-    <t>비비님, 벽면이 완성되었나요?</t>
-  </si>
-  <si>
-    <t>네, 토리님. 벽면은 완성되었습니다. 이제 상자의 구조가 완성되고 내용물이 잘 보호될 거예요. 더 도와드릴 일이 있을까요?</t>
-  </si>
-  <si>
-    <t>네, 나무 상자에 목재 자물쇠를 달아 주실 수 있을까요? 자물쇠가 있으면 상자의 뚜껑을 안전하게 닫을 수 있을 거예요.</t>
-  </si>
-  <si>
-    <t>물론이죠! 목재 자물쇠는 상자를 잠글 수 있도록 해주는 장치로, 뚜껑을 안전하게 닫을 수 있게 해 줄 거예요.</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 자물쇠가 있으면 상자가 훨씬 안전해질 거예요.</t>
-  </si>
-  <si>
-    <t>천만에요, 토리님. 당신 덕분에 저도 즐거운 시간을 보냈어요. 한동안 만나지 못하겠지만, 당신에게도 좋은 일이 가득하길 바라요.</t>
-  </si>
-  <si>
-    <t>안녕하세요, 댐을 짓고 있는 비비님. 잠깐 시간 있으신가요?</t>
-  </si>
-  <si>
-    <t>안녕하세요, 너티님! 댐 짓느라 바쁘지만, 무슨 일이세요?</t>
-  </si>
-  <si>
-    <t>다름이 아니라, 도토리를 담을 수 있는 수레가 필요해서요. 혹시 수레를 만들어 주실 수 있나요?</t>
-  </si>
-  <si>
-    <t>물론이죠! 제가 나무를 잘 다루거든요. 도토리를 담을 수 있는 튼튼한 수레를 만들어 드릴게요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정말 감사합니다, 비비님! 그런데 수레를 만들려면 바퀴가 필요해요. </t>
-  </si>
-  <si>
-    <t>바퀴는 수레의 이동을 가능하게 하는 중요한 부분이죠. 나무로 튼튼하게 만들어 드릴게요. 조금만 기다려 주세요.</t>
-  </si>
-  <si>
-    <t>비비님, 바퀴가 완성되었나요?</t>
-  </si>
-  <si>
-    <t>네, 너티님. 바퀴는 완성되었습니다. 이제 수레를 이동시키는 데 문제가 없을 거예요. 더 도와드릴 일이 있을까요?</t>
-  </si>
-  <si>
-    <t>네, 이제 수레의 평평한 바닥 부분이 필요해요. 모든 짐을 지지하고 하중을 받을 수 있도록 만들어 주실 수 있나요?</t>
-  </si>
-  <si>
-    <t>물론이죠! 수레바닥은 짐을 실을 수 있는 주요 공간이니까요. 튼튼하게 만들어 드릴게요.</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 수레바닥이 완성되면 짐을 안전하게 실을 수 있을 거예요.</t>
-  </si>
-  <si>
-    <t>천만에요, 너티님. 당신 덕분에 즐거운 작업이 되었어요. 한동안 만나지 못하겠지만, 당신의 도토리 수집이 잘 되길 바라요.</t>
-  </si>
-  <si>
-    <t>정말 감사합니다, 비비님! 이제 수레가 완성되면 도토리를 쉽게 운반할 수 있을 거예요.</t>
-  </si>
-  <si>
-    <t>천만에요, 너티님. 도움이 되어 기쁩니다. 수레가 완성되면 다시 찾아와 주세요.</t>
-  </si>
-  <si>
-    <t>네, 너티님. 바퀴는 완성되었습니다. 이제 수레를 쉽게 이동시킬 수 있을 거예요. 다른 요청사항이 있을까요?</t>
-  </si>
-  <si>
-    <t>네, 바퀴축도 만들어 주실 수 있을까요? 바퀴축은 두 개의 바퀴를 연결해 수레의 하중을 분산시키고, 안정성을 높여줘요.</t>
-  </si>
-  <si>
-    <t>물론이죠! 바퀴축은 견고하게 만들어 드릴게요. 조금만 기다려 주세요.</t>
+    <t>안녕 비비야! 여기서 뭐하고 있니?</t>
+  </si>
+  <si>
+    <t>토리구나~ 난 여기서 나무로 댐을 짓고 있었어! 너는 어떻게 이런 깊숙한 숲까지 오게 됐니?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너도 알다시피 곧 있으면 겨울이잖아! 겨울을 대비해서 당근을 보관해놓을 마땅한 장소를 찾다가 여기까지 오게 됐어! </t>
+  </si>
+  <si>
+    <t>어머 그랬구나! 흠... 마땅한 장소라... 장소보다는 물건을 보관해놓을 수 있는 보관함 같은 건 어때? 가령 상자라던지!</t>
+  </si>
+  <si>
+    <t>걱정마! 상자 제작이라면 나한테 맡기라구! 그럼 상자의 기초가 되는 나무 바닥부터 만들어볼까!</t>
+  </si>
+  <si>
+    <t>비비야~ 상자 제작은 잘 되어가니?</t>
+  </si>
+  <si>
+    <t>물론이지! 상자의 바닥은 벌써 완성됐는걸~ 이정도는 나한테 식은 죽 먹기지!</t>
+  </si>
+  <si>
+    <t>상자의 바닥이 생겼구나! 온전한 상자로 만들기 위해서 앞으로 어떤 걸 추가할 예정이야?</t>
+  </si>
+  <si>
+    <t>우선 상자의 벽면을 만들어서 기둥을 역할을 하게 할거야! 벽면만 있으면 얼추 상자의 모양새가 잡히게 되지!</t>
+  </si>
+  <si>
+    <t>상상만 해도 정말 기대가 되는 걸! 역시 비비한테 맡기기 잘했다니까!</t>
+  </si>
+  <si>
+    <t>조금만 기다려 곧 있으면 상자가 완성될 거야!</t>
+  </si>
+  <si>
+    <t>안녕! 비비야~ 나 또 왔어! 어디까지 완성됐는지 궁금해서 도저히 못 참겠더라고!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토리 왔구나! 짜잔! 상자의 모양새가 갖춰졌어! 앞으로 상자의 어느 부분을 좀 더 손 봐줄까? </t>
+  </si>
+  <si>
+    <t>나는 보통 당근을 보관할 때 동굴에 보관하는데 동굴의 천장에 있던 흙이 조금씩 떨어지더라고... 그것 때문에 당근들이 흙투성이가 됐는데 그걸 덮어줄 게 필요할 것 같아!</t>
+  </si>
+  <si>
+    <t>그 문제는 덮개로 해결할 수 있다고 봐! 덮개만 있으면 너의 당근들을 깔끔하게 보관할 수 있을거야~</t>
+  </si>
+  <si>
+    <t>정말 네 말대로라면 나는 항상 깨끗한 상태의 당근을 맛볼 수 있을 거야!</t>
+  </si>
+  <si>
+    <t>당연하지! 그럼 다시 작업에 들어가 볼까!</t>
+  </si>
+  <si>
+    <t>상자가 있었구나! 하지만 나는 상자를 만들만한 손재주가 없는걸...</t>
+  </si>
+  <si>
+    <t>안녕! 비비야~ 내가 이번에 뭘 들고 왔는지 볼래? 수고하는 너를 위해 당근 샐러드를 만들어 왔어!</t>
+  </si>
+  <si>
+    <t>고마워 토리야! 네 샐러드 덕분에 더 열심히 작업할 수 있을 것 같에!</t>
+  </si>
+  <si>
+    <t>비비야 거기 휘어져 물건은 뭐야? 처음 보는 것 같은데?</t>
+  </si>
+  <si>
+    <t>(당근 샐러드를 맛있게 먹으며) 내가 나무 상자를 몇번 사용해봤는데 상자를 쉽게 들 수 있는 손잡이가 필요할 것 같아서 그걸 만들고 있었어!</t>
+  </si>
+  <si>
+    <t>아 그렇구나~ 확실히 쉽게 들고 다닐 수 있는 손잡이가 있으면 엄청 편리할 것 같아!</t>
+  </si>
+  <si>
+    <t>그럼 식사도 했겠다! 다시 힘내보자구!</t>
+  </si>
+  <si>
+    <t>비비야! 어떡해! 네가 만들어준 나무 상자에 있던 내 당근들을 누가 다 훔쳐갔어!</t>
+  </si>
+  <si>
+    <t>이런... 큰일인데! 이를 어쩌지... (당근이 훔쳐지는 것을 막아줄 장치를 생각중)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 (훌쩍) 잘 숨겨놨더라면 (훌쩍) 이런 일도 없었을텐데... </t>
+  </si>
+  <si>
+    <t>너무 자책하지마 토리야~ 나에게 방금 좋은 생각이 떠올랐어! 내가 나무 상자를 위한 자물쇠를 만들어줄게!</t>
+  </si>
+  <si>
+    <t>(눈물을 그치며) 비비야 그거 정말 좋은 생각이다! 자물쇠만 있다면 당근을 안전하게 보관할 수 있을 거야!</t>
+  </si>
+  <si>
+    <t>네 말이 맞아! 내가 자물쇠랑 그에 맞는 열쇠를 너에게 만들어줄게!</t>
+  </si>
+  <si>
+    <t>안녕! 내 친구 비비둥이잖아!</t>
+  </si>
+  <si>
+    <t>만난 건 반갑지만 내가 싫어하는 별명으로 부르는 건 달갑지 않은걸...</t>
+  </si>
+  <si>
+    <t>에이 친구끼리 뭘~ 뭐 네가 정 싫다면 비비라고 불러줄게~</t>
+  </si>
+  <si>
+    <t>그래서 이번에는 어떤 일로 날 찾아왔어 너-티?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 이런 깊은 숲속까지 널 찾아온 건 다름이 아니라~ 바로 나의 소중하디 소중한 도토리를 운반하기 위한 수례가 필요하기 때문이지! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수레라... 수레는 처음인데... 알았어 한 번 만들어볼게~ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비비님, 바퀴축이 완성되었나요?</t>
-  </si>
-  <si>
-    <t>네, 너티님. 바퀴축은 완성되었습니다. 이제 바퀴를 안정적으로 연결할 수 있을 거예요. 다른 요청사항이 있을까요?</t>
-  </si>
-  <si>
-    <t>네, 수레의 받침대도 만들어 주실 수 있을까요? 받침대는 수레바닥과 바퀴축을 지지해 수레를 더 튼튼하게 해 줘요.</t>
-  </si>
-  <si>
-    <t>물론이죠! 받침대는 수레의 안정성을 높이는 중요한 부분이죠. 견고하게 만들어 드릴게요.</t>
-  </si>
-  <si>
-    <t>천만에요, 너티님. 수레가 완성되면 다시 찾아와 주세요. 도와드릴 수 있어서 기쁩니다.</t>
+    <t xml:space="preserve">어이! 비비! 어디까지 만들었냐? </t>
+  </si>
+  <si>
+    <t>일단 수레의 핵심이 되는 바퀴를 만들어봤어!</t>
+  </si>
+  <si>
+    <t>금방 뚝딱 만드는구나! 역시 비버는 다르네~ 손재주가 좋다니까!</t>
+  </si>
+  <si>
+    <t>처음 만들어보는 거라 조금 서툰 부분도 있을 거야!</t>
+  </si>
+  <si>
+    <t>흠... 바퀴는 이정도면 된 것 같고. 바퀴와 바퀴를 이어줄 바퀴축이 필요할 것 같은데!</t>
+  </si>
+  <si>
+    <t>맞아! 지금 바퀴축을 만들려던 참이었어! 심심하면 어떻게 만들어지는지 구경해도 돼!</t>
+  </si>
+  <si>
+    <t>ZZZ... ZZZ... ZZZ... ZZZ... ZZZ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너티! 금새 잠든거야? </t>
+  </si>
+  <si>
+    <t>(잠에서 깨. 화들짝 놀라며) 뭐라고? 아 내가 여기서 자버렸구나! 이불 좀 덮어주지...</t>
+  </si>
+  <si>
+    <t>아휴... 바퀴축은 완성됐고 이제는 수레바닥을 올릴 받침대를 만들 차례야!</t>
+  </si>
+  <si>
+    <t>벌써 거기까지 만들었구나! 내가 졸아버린 사이에 많이도 만들었네!</t>
+  </si>
+  <si>
+    <t>그래 다음부터는 널 위해서 이불도 만들어줘야 겠구나...</t>
+  </si>
+  <si>
+    <t>비비야~ 네 친구 너티 왔다~</t>
+  </si>
+  <si>
+    <t>너티~ 웬일로 일찍 왔네! 받침대는 벌써 완성됐다구!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠시 근처에 볼일이 있어서 왔는데 이제 수레바닥을 만들면 되겠구나! </t>
+  </si>
+  <si>
+    <t>그치! 그럼 이제 바로 수레바닥을...</t>
+  </si>
+  <si>
+    <t>잠깐! 그 전에 수레의 주인이 누군지 알 수 있도록 수레바닥에 내 이름을 세겨줘! 아주 이쁘게~</t>
+  </si>
+  <si>
+    <t>알았어! 수레를 잃어버려서 나를 또 찾아오면 곤란하니까~</t>
+  </si>
+  <si>
+    <t>(살금살금) 비비야 까꿍!</t>
+  </si>
+  <si>
+    <t>아이고 깜짝이야! 어? 이게 뭐야?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하하! 아무리 좋아도 너한테는안 되지! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐긴 뭐야 감사의 표시지~ 내가 도토리들을 이어서 만든 도토리 목걸이야! 수레를 만들어준 답례라 하긴 뭐하고 그냥 나의 작은 선물이야~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 이제 수레의 손잡이까지 만들면 수레 완성이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(누군가 큰 목소리로) 누구없나요? 누구없어요? 저 길을 잃은 것 같아요~</t>
+  </si>
+  <si>
+    <t>누구 목소리지? 어! 너 핑키 아니니?</t>
+  </si>
+  <si>
+    <t>(끔뻑끔뻑) 비비잖아! 여기서 뭐하고 있었어? 어... 비비가 아닌가...</t>
+  </si>
+  <si>
+    <t>너야 말로 여기서 뭐하고 있는 거야? 혹시 길을 잃었니?</t>
+  </si>
+  <si>
+    <t>나야 뭐... (쿨쿨) 나야... (쿨쿨) 나… (풀썩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 쓰러졌잖아! 왜 이렇게 다들 갑자기 골아떨어지는지... 간이 침대라도 만들어줘야 하나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(눈을 비비며 일어난 후) 여긴 어디지?</t>
+  </si>
+  <si>
+    <t>핑키! 일어났구나! 다음부터는 갑자기 쓰러지지 마! 얼마나 걱정했다고!</t>
+  </si>
+  <si>
+    <t>그랬구나! 그럼 잘 찾아왔네! 나는 침대를 여러 번 만들어봤거든! 조잡하지만 지금 네가 누워 있는 곳도 내가 만든 간이 침대야!</t>
+  </si>
+  <si>
+    <t>진짜? 네가 내 침대를 만들어준다면 정말 고마울 것 같아!</t>
+  </si>
+  <si>
+    <t>알았어! 지금 만들어진 나무 바닥재에 깔 나무 포장재를 만들어줄게!</t>
+  </si>
+  <si>
+    <t>아... 미안... 사실 집에 있는 침대가 너무 불편해서 한 숨도 못 잤거든 그래서 침대를 만들어줄 친구를 찾아 다니다가 길을 잃어버렸어...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비야~ 나 왔어~ 침대 제작은 잘 돼가?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">응~ 지금 잘 만들어지고 있어! </t>
+  </si>
+  <si>
+    <t>(가까이서 지켜보며) 비비야 혹시 내가 도와줄 수 있는 게 있을까?</t>
+  </si>
+  <si>
+    <t>지금 침대를 든든하게 감싸줄 나무 막대들이 필요한데 저기 있는 나무 판자들을 들고 와줄 수 있을까?</t>
+  </si>
+  <si>
+    <t>물론이지! 나한테 맡겨! 힘 쓰는 건 자신 있다고!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">역시 같이 만드는 건 재밌네! 뿐만 아니라 같이 만들면 더 빨리 만들 수 있을 거야! </t>
+  </si>
+  <si>
+    <t>(비비와 함께 작업을 하며) 비비야 여기를 잡고 있으면 되니?</t>
+  </si>
+  <si>
+    <t>맞아! 네가 지탱해주고 있을 때 내가 서둘러서 기둥을 완성시킬게!</t>
+  </si>
+  <si>
+    <t>근데 기둥은 왜 설치하는 거야?</t>
+  </si>
+  <si>
+    <t>기둥은 위에 올릴 나무 판자를 위해 세우는 거야! 나무 판자 위에는 지푸라기를 올려서 너에게 그늘을 만들어줄려고!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우와! 그럼 더운 날씨에도 시원하게 잘 수 있겠네! </t>
+  </si>
+  <si>
+    <t>그래! 너에게 정말 좋은 일이지~!</t>
+  </si>
+  <si>
+    <t>직접 만든 선물을 받다니 정말 고마운걸! 너도 꽤나 손재주가 좋네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴우... 이제 거의 완성된 것 같은데?</t>
+  </si>
+  <si>
+    <t>아직 완전히 끝나지는 않았어!</t>
+  </si>
+  <si>
+    <t>또 어떤 게 남았어?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">위로 올라갈 나무 사다리가 필요해! 그래야지 언제든지 지푸라기를 보충해줄 수 있거든! </t>
+  </si>
+  <si>
+    <t>그렇구나! 나무 사다리를 만들어주면 내가 지푸라기를 모아 올게~!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋았어 핑키! 마무리 작업을 해볼까! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -660,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11F784-F8EE-4C46-B719-71CA69AA1CB1}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -704,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -720,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -736,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -752,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -768,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -784,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -800,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -816,10 +939,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -832,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -848,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -864,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -877,21 +1000,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -899,120 +1022,120 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -1020,10 +1143,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -1031,10 +1154,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -1042,10 +1165,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
@@ -1053,10 +1176,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -1064,10 +1187,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -1075,10 +1198,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
@@ -1086,10 +1209,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>53</v>
@@ -1097,10 +1220,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -1108,10 +1231,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
@@ -1119,10 +1242,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -1130,10 +1253,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1141,10 +1264,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>58</v>
@@ -1152,10 +1275,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>59</v>
@@ -1163,10 +1286,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
@@ -1174,10 +1297,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
@@ -1185,10 +1308,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>62</v>
@@ -1196,10 +1319,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -1207,422 +1330,530 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1641,12 +1872,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101006E3613DE9C3DF14DA1CDAEC4124FE273" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4576cb891804bb02e9227510f37903dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eae9b4aa-a722-474c-b4c5-014258ccd352" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e879a73f17c63fb6dedf183aeb290c3" ns3:_="">
     <xsd:import namespace="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
@@ -1804,6 +2029,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BECE83E-3AE9-4E55-B9E9-74C8255A47DA}">
   <ds:schemaRefs>
@@ -1813,22 +2044,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37935B60-BF5D-4F24-9C1D-AA0A853FEE34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1844,4 +2059,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4926D0D-F725-4139-A82B-ED3E78832B8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>